--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1493.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1493.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.300858522360383</v>
+        <v>1.587011218070984</v>
       </c>
       <c r="B1">
-        <v>1.971292051023284</v>
+        <v>4.395941734313965</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.040613412857056</v>
       </c>
       <c r="D1">
-        <v>2.199253731517264</v>
+        <v>1.197516560554504</v>
       </c>
       <c r="E1">
-        <v>0.8527945731130847</v>
+        <v>0.912695050239563</v>
       </c>
     </row>
   </sheetData>
